--- a/biology/Médecine/Vladimir_Bryntsalov/Vladimir_Bryntsalov.xlsx
+++ b/biology/Médecine/Vladimir_Bryntsalov/Vladimir_Bryntsalov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Alexeïevitch Bryntsalov (russe : Брынцалов, Владимир Алексеевич), né le 23 novembre 1946 à Tcherkessk est un pharmacien et homme politique russe.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se présente lors de l'élection présidentielle russe de 1996 et tente de se présenter à celle de 2004. Il est élu en 1995 à la Douma d'État puis de nouveau jusqu'en 2003.
-Il est le fondateur de l'entreprise pharmaceutique Fereïn qui fabriquait de l'insuline sous licence qui finit par être mise en faillite ; puis fonde les firmes Bryntsalov et Brinstalov-A dans une zone franche de Gorno-Altaïsk[1].
+Il est le fondateur de l'entreprise pharmaceutique Fereïn qui fabriquait de l'insuline sous licence qui finit par être mise en faillite ; puis fonde les firmes Bryntsalov et Brinstalov-A dans une zone franche de Gorno-Altaïsk.
 </t>
         </is>
       </c>
